--- a/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
+++ b/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{B87B7AF5-1208-406C-B7EE-685E287FA7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5591810F-7669-4E67-B445-D19405AF07BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD0A14B-5D18-4A4D-AB05-9BD42BB7B608}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="840" windowWidth="14430" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="15" windowWidth="10635" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
     <sheet name="リスト" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>受講生記入</t>
     <rPh sb="0" eb="3">
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -777,17 +777,17 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -872,7 +872,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -934,7 +934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -948,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.5">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -962,7 +962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -986,7 +986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1036,301 +1036,305 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1365,14 +1369,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1569,6 +1573,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1577,20 +1587,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54135F1D-1B0F-4540-A8A3-56BD0C871242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54135F1D-1B0F-4540-A8A3-56BD0C871242}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
+++ b/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD0A14B-5D18-4A4D-AB05-9BD42BB7B608}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ABD0A14B-5D18-4A4D-AB05-9BD42BB7B608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D4C93EB-B495-4541-B6C4-1A30C3171F11}"/>
   <bookViews>
     <workbookView xWindow="9855" yWindow="15" windowWidth="10635" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
     <sheet name="リスト" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>受講生記入</t>
     <rPh sb="0" eb="3">
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -776,18 +776,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -872,7 +872,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -934,7 +934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -948,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -962,7 +962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -986,7 +986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1036,305 +1036,307 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1369,14 +1371,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1573,12 +1575,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1587,37 +1583,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54135F1D-1B0F-4540-A8A3-56BD0C871242}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54135F1D-1B0F-4540-A8A3-56BD0C871242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
 </file>
--- a/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
+++ b/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ABD0A14B-5D18-4A4D-AB05-9BD42BB7B608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D4C93EB-B495-4541-B6C4-1A30C3171F11}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{ABD0A14B-5D18-4A4D-AB05-9BD42BB7B608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A417BDB8-6301-4272-931B-42F4FA124343}"/>
   <bookViews>
     <workbookView xWindow="9855" yWindow="15" windowWidth="10635" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>受講生記入</t>
     <rPh sb="0" eb="3">
@@ -269,6 +269,14 @@
   </si>
   <si>
     <t>05_レビュー議事録（構造分析）</t>
+  </si>
+  <si>
+    <t>計画、
+要求分析、
+構造分析</t>
+  </si>
+  <si>
+    <t>05_レビュー議事録(計画、要求分析、分析)</t>
   </si>
 </sst>
 </file>
@@ -411,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -424,6 +432,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -788,14 +802,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -1049,15 +1063,27 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
@@ -1391,6 +1417,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1574,29 +1615,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54135F1D-1B0F-4540-A8A3-56BD0C871242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54135F1D-1B0F-4540-A8A3-56BD0C871242}"/>
 </file>
--- a/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
+++ b/07_ レビュー議事録,議事録一覧/議事録チェック一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{ABD0A14B-5D18-4A4D-AB05-9BD42BB7B608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A417BDB8-6301-4272-931B-42F4FA124343}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{ABD0A14B-5D18-4A4D-AB05-9BD42BB7B608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB1C5CD7-3C28-4DCF-A053-31F7F21C5674}"/>
   <bookViews>
     <workbookView xWindow="9855" yWindow="15" windowWidth="10635" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>受講生記入</t>
     <rPh sb="0" eb="3">
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>05_レビュー議事録(計画、要求分析、分析)</t>
+  </si>
+  <si>
+    <t>確認しました。</t>
   </si>
 </sst>
 </file>
@@ -790,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1087,15 +1090,29 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
